--- a/inst/extdata/xl/inputs_stics_example.xlsx
+++ b/inst/extdata/xl/inputs_stics_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="187" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="184" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="331">
   <si>
     <t>It is important to avoid leaving empty cells.</t>
   </si>
@@ -591,9 +591,6 @@
     <t>irecbutoir</t>
   </si>
   <si>
-    <t>juldes</t>
-  </si>
-  <si>
     <t>effirr</t>
   </si>
   <si>
@@ -868,6 +865,9 @@
   </si>
   <si>
     <t>FRA_ARB_13_SEC_220-0-0_37K_ARB13_C_tec.xml</t>
+  </si>
+  <si>
+    <t>juldes</t>
   </si>
   <si>
     <t>engrais_1</t>
@@ -1607,10 +1607,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1668,6 +1664,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4897,10 +4897,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DG12"/>
+  <dimension ref="A1:DF12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CJ2" activeCellId="0" sqref="CJ2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4931,48 +4931,47 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="4" width="5"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="4" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="31" width="15.8744939271255"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="31" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="68" min="31" style="31" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="7.1417004048583"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="4" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="4" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="4" width="30.4291497975708"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="31" width="42.5546558704454"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="4" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="4" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="88" min="87" style="4" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="31" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="31" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="4" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="4" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="4" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="103" min="101" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="30.7570850202429"/>
-    <col collapsed="false" hidden="false" max="106" min="105" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="16.3157894736842"/>
-    <col collapsed="false" hidden="false" max="823" min="108" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="1025" min="824" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="4" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="31" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="31" width="15.6518218623482"/>
+    <col collapsed="false" hidden="false" max="67" min="30" style="31" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="7.1417004048583"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="4" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="7.4251012145749"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="4" width="7.4251012145749"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="4" width="30.4291497975708"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="31" width="42.5546558704454"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="4" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="4" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="87" min="86" style="4" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="31" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="31" width="17.8542510121458"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="4" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="4" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="4" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="102" min="100" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="30.7570850202429"/>
+    <col collapsed="false" hidden="false" max="105" min="104" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="16.3157894736842"/>
+    <col collapsed="false" hidden="false" max="822" min="107" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="1025" min="823" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,13 +5053,13 @@
       <c r="Z1" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="59" t="s">
+      <c r="AA1" s="51" t="s">
         <v>181</v>
       </c>
       <c r="AB1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="59" t="s">
         <v>183</v>
       </c>
       <c r="AD1" s="60" t="s">
@@ -5075,7 +5074,7 @@
       <c r="AG1" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="AH1" s="64" t="s">
+      <c r="AH1" s="60" t="s">
         <v>188</v>
       </c>
       <c r="AI1" s="61" t="s">
@@ -5087,7 +5086,7 @@
       <c r="AK1" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AL1" s="60" t="s">
         <v>192</v>
       </c>
       <c r="AM1" s="61" t="s">
@@ -5099,7 +5098,7 @@
       <c r="AO1" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="AP1" s="64" t="s">
+      <c r="AP1" s="60" t="s">
         <v>196</v>
       </c>
       <c r="AQ1" s="61" t="s">
@@ -5111,7 +5110,7 @@
       <c r="AS1" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" s="64" t="s">
+      <c r="AT1" s="60" t="s">
         <v>200</v>
       </c>
       <c r="AU1" s="61" t="s">
@@ -5123,7 +5122,7 @@
       <c r="AW1" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AX1" s="64" t="s">
+      <c r="AX1" s="60" t="s">
         <v>204</v>
       </c>
       <c r="AY1" s="61" t="s">
@@ -5135,7 +5134,7 @@
       <c r="BA1" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BB1" s="60" t="s">
         <v>208</v>
       </c>
       <c r="BC1" s="61" t="s">
@@ -5147,7 +5146,7 @@
       <c r="BE1" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="BF1" s="64" t="s">
+      <c r="BF1" s="60" t="s">
         <v>212</v>
       </c>
       <c r="BG1" s="61" t="s">
@@ -5159,7 +5158,7 @@
       <c r="BI1" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BJ1" s="64" t="s">
+      <c r="BJ1" s="60" t="s">
         <v>216</v>
       </c>
       <c r="BK1" s="61" t="s">
@@ -5171,7 +5170,7 @@
       <c r="BM1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="BN1" s="64" t="s">
+      <c r="BN1" s="60" t="s">
         <v>220</v>
       </c>
       <c r="BO1" s="61" t="s">
@@ -5183,7 +5182,7 @@
       <c r="BQ1" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="BR1" s="64" t="s">
+      <c r="BR1" s="60" t="s">
         <v>224</v>
       </c>
       <c r="BS1" s="61" t="s">
@@ -5195,7 +5194,7 @@
       <c r="BU1" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="BV1" s="64" t="s">
+      <c r="BV1" s="60" t="s">
         <v>228</v>
       </c>
       <c r="BW1" s="61" t="s">
@@ -5207,28 +5206,28 @@
       <c r="BY1" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="BZ1" s="64" t="s">
+      <c r="BZ1" s="60" t="s">
         <v>232</v>
       </c>
       <c r="CA1" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="CB1" s="62" t="s">
+      <c r="CB1" s="51" t="s">
         <v>234</v>
       </c>
       <c r="CC1" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="CD1" s="51" t="s">
+      <c r="CD1" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="CE1" s="60" t="s">
+      <c r="CE1" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="CF1" s="65" t="s">
+      <c r="CF1" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="CG1" s="65" t="s">
+      <c r="CG1" s="64" t="s">
         <v>239</v>
       </c>
       <c r="CH1" s="65" t="s">
@@ -5237,43 +5236,43 @@
       <c r="CI1" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="CJ1" s="67" t="s">
+      <c r="CJ1" s="48" t="s">
         <v>242</v>
       </c>
       <c r="CK1" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="CL1" s="48" t="s">
+      <c r="CL1" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="CM1" s="68" t="s">
+      <c r="CM1" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="CN1" s="68" t="s">
+      <c r="CN1" s="48" t="s">
         <v>246</v>
       </c>
       <c r="CO1" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="CP1" s="48" t="s">
+      <c r="CP1" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="CQ1" s="68" t="s">
+      <c r="CQ1" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="CR1" s="68" t="s">
+      <c r="CR1" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="CS1" s="65" t="s">
+      <c r="CS1" s="64" t="s">
         <v>251</v>
       </c>
       <c r="CT1" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="CU1" s="66" t="s">
+      <c r="CU1" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="CV1" s="69" t="s">
+      <c r="CV1" s="68" t="s">
         <v>254</v>
       </c>
       <c r="CW1" s="69" t="s">
@@ -5291,7 +5290,7 @@
       <c r="DA1" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="DB1" s="74" t="s">
+      <c r="DB1" s="58" t="s">
         <v>260</v>
       </c>
       <c r="DC1" s="58" t="s">
@@ -5303,11 +5302,8 @@
       <c r="DE1" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="DF1" s="58" t="s">
+      <c r="DF1" s="74" t="s">
         <v>264</v>
-      </c>
-      <c r="DG1" s="59" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,265 +5385,262 @@
       <c r="Z2" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA2" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="31" t="n">
+      <c r="AA2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD2" s="18" t="n">
+      <c r="AC2" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="18" t="n">
+      <c r="AD2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF2" s="4" t="n">
-        <v>0</v>
+      <c r="CE2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CK2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM2" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="CH2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CL2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="31" t="n">
-        <v>999</v>
-      </c>
       <c r="CN2" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO2" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP2" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ2" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CO2" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP2" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ2" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR2" s="31" t="n">
-        <v>4</v>
-      </c>
       <c r="CS2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU2" s="18" t="s">
-        <v>266</v>
+      <c r="CT2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU2" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" s="18" t="n">
+      <c r="CW2" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="18" t="n">
+      <c r="CX2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ2" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA2" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB2" s="30" t="n">
+      <c r="DB2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC2" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD2" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG2" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF2" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>110</v>
@@ -5724,259 +5717,256 @@
       <c r="Z3" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA3" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB3" s="34" t="n">
+      <c r="AA3" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC3" s="31" t="n">
+      <c r="AB3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD3" s="18" t="n">
+      <c r="AC3" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="18" t="n">
+      <c r="AD3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF3" s="4" t="n">
-        <v>0</v>
+      <c r="CE3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK3" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL3" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL3" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM3" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR3" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT3" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU3" s="18" t="s">
-        <v>266</v>
+      <c r="CT3" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU3" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV3" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="18" t="n">
+      <c r="CW3" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="18" t="n">
+      <c r="CX3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ3" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA3" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB3" s="30" t="n">
+      <c r="DB3" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC3" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD3" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG3" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF3" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6059,259 +6049,256 @@
       <c r="Z4" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA4" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB4" s="34" t="n">
+      <c r="AA4" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC4" s="31" t="n">
+      <c r="AB4" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD4" s="18" t="n">
+      <c r="AC4" s="18" t="n">
         <v>2</v>
       </c>
+      <c r="AD4" s="31" t="n">
+        <v>156</v>
+      </c>
       <c r="AE4" s="31" t="n">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AF4" s="31" t="n">
+        <v>164</v>
+      </c>
+      <c r="AG4" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="AG4" s="31" t="n">
-        <v>164</v>
-      </c>
       <c r="AH4" s="31" t="n">
+        <v>172</v>
+      </c>
+      <c r="AI4" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="AI4" s="31" t="n">
-        <v>172</v>
-      </c>
       <c r="AJ4" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK4" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="AK4" s="31" t="n">
-        <v>180</v>
-      </c>
       <c r="AL4" s="31" t="n">
+        <v>185</v>
+      </c>
+      <c r="AM4" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="AM4" s="31" t="n">
-        <v>185</v>
-      </c>
-      <c r="AN4" s="31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="18" t="n">
+      <c r="AN4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF4" s="4" t="n">
-        <v>0</v>
+      <c r="CE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK4" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL4" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL4" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM4" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR4" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU4" s="18" t="s">
-        <v>266</v>
+      <c r="CT4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU4" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV4" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="18" t="n">
+      <c r="CW4" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ4" s="18" t="n">
+      <c r="CX4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ4" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA4" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB4" s="30" t="n">
+      <c r="DB4" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC4" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD4" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG4" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF4" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6396,89 +6383,89 @@
       <c r="Z5" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA5" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB5" s="34" t="n">
+      <c r="AA5" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC5" s="31" t="n">
+      <c r="AB5" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD5" s="18" t="n">
+      <c r="AC5" s="18" t="n">
         <v>2</v>
       </c>
+      <c r="AD5" s="31" t="n">
+        <v>182</v>
+      </c>
       <c r="AE5" s="31" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AF5" s="31" t="n">
         <v>182</v>
       </c>
-      <c r="AF5" s="31" t="n">
+      <c r="AG5" s="31" t="n">
         <v>23.5</v>
       </c>
-      <c r="AG5" s="31" t="n">
-        <v>182</v>
-      </c>
       <c r="AH5" s="31" t="n">
-        <v>23.5</v>
+        <v>188</v>
       </c>
       <c r="AI5" s="31" t="n">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="31" t="n">
+        <v>193</v>
+      </c>
+      <c r="AK5" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="31" t="n">
+        <v>193</v>
+      </c>
+      <c r="AM5" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN5" s="31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AO5" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP5" s="31" t="n">
+        <v>203</v>
+      </c>
+      <c r="AQ5" s="31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" s="31" t="n">
+        <v>203</v>
+      </c>
+      <c r="AS5" s="31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="31" t="n">
+        <v>216</v>
+      </c>
+      <c r="AU5" s="31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV5" s="31" t="n">
+        <v>225</v>
+      </c>
+      <c r="AW5" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX5" s="31" t="n">
+        <v>225</v>
+      </c>
+      <c r="AY5" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="31" t="n">
+        <v>244</v>
+      </c>
+      <c r="BA5" s="31" t="n">
         <v>20</v>
       </c>
-      <c r="AK5" s="31" t="n">
-        <v>193</v>
-      </c>
-      <c r="AL5" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" s="31" t="n">
-        <v>193</v>
-      </c>
-      <c r="AN5" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO5" s="31" t="n">
-        <v>199</v>
-      </c>
-      <c r="AP5" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ5" s="31" t="n">
-        <v>203</v>
-      </c>
-      <c r="AR5" s="31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS5" s="31" t="n">
-        <v>203</v>
-      </c>
-      <c r="AT5" s="31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AU5" s="31" t="n">
-        <v>216</v>
-      </c>
-      <c r="AV5" s="31" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW5" s="31" t="n">
-        <v>225</v>
-      </c>
-      <c r="AX5" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" s="31" t="n">
-        <v>225</v>
-      </c>
-      <c r="AZ5" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA5" s="31" t="n">
-        <v>244</v>
-      </c>
       <c r="BB5" s="31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="31" t="n">
         <v>0</v>
@@ -6519,16 +6506,16 @@
       <c r="BO5" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" s="31" t="n">
+      <c r="BP5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BR5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="4" t="n">
+      <c r="BR5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="BT5" s="0" t="n">
@@ -6540,115 +6527,112 @@
       <c r="BV5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BW5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="4" t="n">
+      <c r="BW5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="BY5" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="BZ5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="4" t="n">
+      <c r="BZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="CB5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF5" s="4" t="n">
-        <v>0</v>
+      <c r="CE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK5" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL5" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK5" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL5" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM5" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR5" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT5" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU5" s="18" t="s">
-        <v>266</v>
+      <c r="CT5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU5" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV5" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="18" t="n">
+      <c r="CW5" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="18" t="n">
+      <c r="CX5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ5" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA5" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB5" s="30" t="n">
+      <c r="DB5" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC5" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG5" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF5" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6733,265 +6717,262 @@
       <c r="Z6" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA6" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB6" s="34" t="n">
+      <c r="AA6" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC6" s="31" t="n">
+      <c r="AB6" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD6" s="18" t="n">
+      <c r="AC6" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="18" t="n">
+      <c r="AD6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF6" s="4" t="n">
-        <v>0</v>
+      <c r="CE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK6" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL6" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR6" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT6" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU6" s="18" t="s">
-        <v>266</v>
+      <c r="CT6" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU6" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV6" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX6" s="18" t="n">
+      <c r="CW6" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ6" s="18" t="n">
+      <c r="CX6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ6" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA6" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB6" s="30" t="n">
+      <c r="DB6" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC6" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD6" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG6" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF6" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">I7</f>
@@ -7070,265 +7051,262 @@
       <c r="Z7" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA7" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB7" s="34" t="n">
+      <c r="AA7" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC7" s="31" t="n">
+      <c r="AB7" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD7" s="18" t="n">
+      <c r="AC7" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="18" t="n">
+      <c r="AD7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF7" s="4" t="n">
-        <v>0</v>
+      <c r="CE7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK7" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI7" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL7" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR7" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT7" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU7" s="18" t="s">
-        <v>266</v>
+      <c r="CT7" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU7" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV7" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX7" s="18" t="n">
+      <c r="CW7" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ7" s="18" t="n">
+      <c r="CX7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ7" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA7" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB7" s="30" t="n">
+      <c r="DB7" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC7" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD7" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG7" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">I8</f>
@@ -7407,265 +7385,262 @@
       <c r="Z8" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA8" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB8" s="34" t="n">
+      <c r="AA8" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC8" s="31" t="n">
+      <c r="AB8" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="18" t="n">
+      <c r="AC8" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="18" t="n">
+      <c r="AD8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF8" s="4" t="n">
-        <v>0</v>
+      <c r="CE8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK8" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI8" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK8" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL8" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR8" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT8" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU8" s="18" t="s">
-        <v>266</v>
+      <c r="CT8" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU8" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV8" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX8" s="18" t="n">
+      <c r="CW8" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ8" s="18" t="n">
+      <c r="CX8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ8" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA8" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB8" s="30" t="n">
+      <c r="DB8" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC8" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD8" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG8" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF8" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">I9</f>
@@ -7744,265 +7719,262 @@
       <c r="Z9" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA9" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB9" s="34" t="n">
+      <c r="AA9" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC9" s="31" t="n">
+      <c r="AB9" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD9" s="18" t="n">
+      <c r="AC9" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE9" s="31" t="n">
+      <c r="AD9" s="31" t="n">
         <v>203</v>
       </c>
-      <c r="AF9" s="18" t="n">
+      <c r="AE9" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="AG9" s="31" t="n">
+      <c r="AF9" s="31" t="n">
         <v>223</v>
       </c>
-      <c r="AH9" s="18" t="n">
+      <c r="AG9" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="AI9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="18" t="n">
+      <c r="AH9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF9" s="4" t="n">
-        <v>0</v>
+      <c r="CE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK9" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI9" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK9" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL9" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR9" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU9" s="18" t="s">
-        <v>266</v>
+      <c r="CT9" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU9" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV9" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX9" s="18" t="n">
+      <c r="CW9" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ9" s="18" t="n">
+      <c r="CX9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY9" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ9" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA9" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB9" s="30" t="n">
+      <c r="DB9" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC9" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD9" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG9" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF9" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">I10</f>
@@ -8081,265 +8053,262 @@
       <c r="Z10" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA10" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB10" s="34" t="n">
+      <c r="AA10" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC10" s="31" t="n">
+      <c r="AB10" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD10" s="18" t="n">
+      <c r="AC10" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="18" t="n">
+      <c r="AD10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF10" s="4" t="n">
-        <v>0</v>
+      <c r="CE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK10" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI10" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK10" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL10" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR10" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT10" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU10" s="18" t="s">
-        <v>266</v>
+      <c r="CT10" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU10" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV10" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX10" s="18" t="n">
+      <c r="CW10" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ10" s="18" t="n">
+      <c r="CX10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ10" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA10" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB10" s="30" t="n">
+      <c r="DB10" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC10" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD10" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG10" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF10" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">I11</f>
@@ -8418,265 +8387,262 @@
       <c r="Z11" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA11" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="31" t="n">
+      <c r="AA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD11" s="18" t="n">
+      <c r="AC11" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="18" t="n">
+      <c r="AD11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF11" s="4" t="n">
-        <v>0</v>
+      <c r="CE11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK11" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI11" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK11" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL11" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR11" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU11" s="18" t="s">
-        <v>266</v>
+      <c r="CT11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU11" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV11" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="18" t="n">
+      <c r="CW11" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="18" t="n">
+      <c r="CX11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ11" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA11" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB11" s="30" t="n">
+      <c r="DB11" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC11" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD11" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG11" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF11" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">I12</f>
@@ -8755,259 +8721,256 @@
       <c r="Z12" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="AA12" s="18" t="n">
-        <v>999</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="31" t="n">
+      <c r="AA12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="AD12" s="18" t="n">
+      <c r="AC12" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="AE12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AF12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AL12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AN12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AP12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AR12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AT12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AV12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AX12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="AZ12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BD12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BF12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BH12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BJ12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BL12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BN12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BP12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BR12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="BT12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BV12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="BX12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="BZ12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="4" t="n">
-        <v>999</v>
-      </c>
-      <c r="CB12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="18" t="n">
+      <c r="AD12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AE12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AG12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AI12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AK12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AM12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AQ12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AW12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BA12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BC12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BE12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BG12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BI12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BK12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BM12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BO12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BQ12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="BS12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="BW12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="BY12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="CA12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="CF12" s="4" t="n">
-        <v>0</v>
+      <c r="CE12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="CG12" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH12" s="18" t="n">
+        <v>220</v>
+      </c>
+      <c r="CI12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ12" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="CK12" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="CL12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CM12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CO12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="31" t="n">
+        <v>999</v>
+      </c>
+      <c r="CQ12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="CH12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI12" s="18" t="n">
-        <v>220</v>
-      </c>
-      <c r="CJ12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK12" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="CL12" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="CM12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CN12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CP12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="CR12" s="31" t="n">
-        <v>0</v>
-      </c>
       <c r="CS12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT12" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CU12" s="18" t="s">
-        <v>266</v>
+      <c r="CT12" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU12" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="CV12" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="CW12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX12" s="18" t="n">
+      <c r="CW12" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CY12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ12" s="18" t="n">
+      <c r="CX12" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY12" s="18" t="n">
         <v>15</v>
       </c>
+      <c r="CZ12" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="DA12" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="DB12" s="30" t="n">
+      <c r="DB12" s="31" t="n">
         <v>1</v>
       </c>
       <c r="DC12" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD12" s="31" t="n">
         <v>0</v>
       </c>
       <c r="DE12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="31" t="n">
-        <v>999</v>
-      </c>
-      <c r="DG12" s="18" t="n">
+        <v>999</v>
+      </c>
+      <c r="DF12" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9029,7 +8992,7 @@
   </sheetPr>
   <dimension ref="A1:DJ12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="CZ1" activeCellId="0" sqref="CZ1"/>
     </sheetView>
   </sheetViews>
@@ -9188,269 +9151,269 @@
       <c r="Z1" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="59" t="s">
+      <c r="AA1" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AC1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AD1" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="AD1" s="60" t="s">
+      <c r="AE1" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AF1" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" s="62" t="s">
+      <c r="AG1" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AH1" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="AH1" s="64" t="s">
+      <c r="AI1" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="AI1" s="61" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="AJ1" s="62" t="s">
+      <c r="AK1" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="AK1" s="63" t="s">
+      <c r="AL1" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AM1" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AN1" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="AN1" s="62" t="s">
+      <c r="AO1" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="AO1" s="63" t="s">
+      <c r="AP1" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="AP1" s="64" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="AQ1" s="61" t="s">
+      <c r="AR1" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AR1" s="62" t="s">
+      <c r="AS1" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="AS1" s="63" t="s">
+      <c r="AT1" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" s="64" t="s">
+      <c r="AU1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="AU1" s="61" t="s">
+      <c r="AV1" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AV1" s="62" t="s">
+      <c r="AW1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="63" t="s">
+      <c r="AX1" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AX1" s="64" t="s">
+      <c r="AY1" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="AY1" s="61" t="s">
+      <c r="AZ1" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AZ1" s="62" t="s">
+      <c r="BA1" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="BA1" s="63" t="s">
+      <c r="BB1" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BC1" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="BC1" s="61" t="s">
+      <c r="BD1" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="BD1" s="62" t="s">
+      <c r="BE1" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="BE1" s="63" t="s">
+      <c r="BF1" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="BF1" s="64" t="s">
+      <c r="BG1" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="BG1" s="61" t="s">
+      <c r="BH1" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="BH1" s="62" t="s">
+      <c r="BI1" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="BI1" s="63" t="s">
+      <c r="BJ1" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BJ1" s="64" t="s">
+      <c r="BK1" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="BK1" s="61" t="s">
+      <c r="BL1" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="BL1" s="62" t="s">
+      <c r="BM1" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="BM1" s="63" t="s">
+      <c r="BN1" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="BN1" s="64" t="s">
+      <c r="BO1" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="BO1" s="61" t="s">
+      <c r="BP1" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="BP1" s="62" t="s">
+      <c r="BQ1" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="BQ1" s="63" t="s">
+      <c r="BR1" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="BR1" s="64" t="s">
+      <c r="BS1" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="BS1" s="61" t="s">
+      <c r="BT1" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="BT1" s="62" t="s">
+      <c r="BU1" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="BU1" s="63" t="s">
+      <c r="BV1" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="BV1" s="64" t="s">
+      <c r="BW1" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="BW1" s="61" t="s">
+      <c r="BX1" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="BX1" s="62" t="s">
+      <c r="BY1" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="BY1" s="63" t="s">
+      <c r="BZ1" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="BZ1" s="64" t="s">
+      <c r="CA1" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="CA1" s="61" t="s">
+      <c r="CB1" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="CB1" s="62" t="s">
+      <c r="CC1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="CC1" s="51" t="s">
+      <c r="CD1" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="CD1" s="51" t="s">
+      <c r="CE1" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="CE1" s="60" t="s">
+      <c r="CF1" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="CF1" s="65" t="s">
+      <c r="CG1" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="CG1" s="65" t="s">
+      <c r="CH1" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="CH1" s="65" t="s">
+      <c r="CI1" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="CI1" s="66" t="s">
-        <v>241</v>
-      </c>
       <c r="CJ1" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK1" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="CK1" s="48" t="s">
+      <c r="CL1" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="CM1" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="CL1" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="CM1" s="68" t="s">
+      <c r="CN1" s="67" t="s">
         <v>245</v>
-      </c>
-      <c r="CN1" s="68" t="s">
-        <v>246</v>
       </c>
       <c r="CO1" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="CP1" s="68" t="s">
+      <c r="CP1" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="CQ1" s="67" t="s">
         <v>249</v>
-      </c>
-      <c r="CQ1" s="68" t="s">
-        <v>250</v>
       </c>
       <c r="CR1" s="75" t="s">
         <v>276</v>
       </c>
       <c r="CS1" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="CT1" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="CT1" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="CU1" s="67" t="s">
+      <c r="CU1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="CV1" s="65" t="s">
+      <c r="CV1" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="CW1" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="CW1" s="65" t="s">
+      <c r="CX1" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="CX1" s="66" t="s">
+      <c r="CY1" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="CY1" s="69" t="s">
+      <c r="CZ1" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="CZ1" s="69" t="s">
+      <c r="DA1" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="DA1" s="70" t="s">
+      <c r="DB1" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="DB1" s="71" t="s">
+      <c r="DC1" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="DC1" s="72" t="s">
+      <c r="DD1" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="DD1" s="73" t="s">
+      <c r="DE1" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="DE1" s="74" t="s">
+      <c r="DF1" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="DF1" s="58" t="s">
+      <c r="DG1" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="DG1" s="58" t="s">
+      <c r="DH1" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="DH1" s="58" t="s">
+      <c r="DI1" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="DI1" s="58" t="s">
+      <c r="DJ1" s="74" t="s">
         <v>264</v>
-      </c>
-      <c r="DJ1" s="59" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9758,7 +9721,7 @@
         <v>15</v>
       </c>
       <c r="CX2" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY2" s="31" t="n">
         <v>1</v>
@@ -9799,7 +9762,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>110</v>
@@ -10102,7 +10065,7 @@
         <v>15</v>
       </c>
       <c r="CX3" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY3" s="31" t="n">
         <v>1</v>
@@ -10446,7 +10409,7 @@
         <v>15</v>
       </c>
       <c r="CX4" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY4" s="31" t="n">
         <v>1</v>
@@ -10792,7 +10755,7 @@
         <v>15</v>
       </c>
       <c r="CX5" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY5" s="31" t="n">
         <v>1</v>
@@ -11138,7 +11101,7 @@
         <v>15</v>
       </c>
       <c r="CX6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY6" s="31" t="n">
         <v>1</v>
@@ -11179,7 +11142,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">I7</f>
@@ -11484,7 +11447,7 @@
         <v>15</v>
       </c>
       <c r="CX7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY7" s="31" t="n">
         <v>1</v>
@@ -11525,7 +11488,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">I8</f>
@@ -11830,7 +11793,7 @@
         <v>15</v>
       </c>
       <c r="CX8" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY8" s="31" t="n">
         <v>1</v>
@@ -11871,7 +11834,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">I9</f>
@@ -12176,7 +12139,7 @@
         <v>15</v>
       </c>
       <c r="CX9" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY9" s="31" t="n">
         <v>1</v>
@@ -12217,7 +12180,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">I10</f>
@@ -12522,7 +12485,7 @@
         <v>15</v>
       </c>
       <c r="CX10" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY10" s="31" t="n">
         <v>1</v>
@@ -12563,7 +12526,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">I11</f>
@@ -12868,7 +12831,7 @@
         <v>15</v>
       </c>
       <c r="CX11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY11" s="31" t="n">
         <v>1</v>
@@ -12909,7 +12872,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">I12</f>
@@ -13214,7 +13177,7 @@
         <v>15</v>
       </c>
       <c r="CX12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY12" s="31" t="n">
         <v>1</v>
@@ -13328,7 +13291,7 @@
       <c r="E1" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>283</v>
       </c>
       <c r="G1" s="51" t="s">
@@ -13367,7 +13330,7 @@
       <c r="R1" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="59" t="s">
         <v>296</v>
       </c>
       <c r="T1" s="76" t="s">
@@ -13571,13 +13534,13 @@
       <c r="G1" s="79" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>315</v>
       </c>
       <c r="K1" s="58" t="s">
@@ -13733,7 +13696,7 @@
       <c r="M4" s="18" t="n">
         <v>405</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>313</v>
       </c>
       <c r="P4" s="0" t="s">
@@ -13780,7 +13743,7 @@
       <c r="M5" s="18" t="n">
         <v>405</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="60" t="s">
         <v>315</v>
       </c>
       <c r="P5" s="0" t="s">
@@ -13827,7 +13790,7 @@
       <c r="M6" s="18" t="n">
         <v>405</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="60" t="s">
         <v>314</v>
       </c>
       <c r="P6" s="0" t="s">
